--- a/ROSTER_INPUT.xlsx
+++ b/ROSTER_INPUT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>REST</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>INPUT FILE NAME MUST BE ROASTER_INPUT</t>
-  </si>
-  <si>
-    <t>for any help email to satishkushwah50@gmail.com</t>
   </si>
   <si>
     <t>MANISH</t>
@@ -628,7 +625,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -654,7 +651,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -746,7 +743,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -757,9 +754,7 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="J10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
